--- a/Misc/Documentation/MAEVE_versions.xlsx
+++ b/Misc/Documentation/MAEVE_versions.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Docs\Personal\MAEVE\MAEVE-II\Misc\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7503FD25-8FE4-4850-9A06-C22779B8F0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Version</t>
   </si>
@@ -33,9 +22,16 @@
     <t>Description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <t>Notes</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -46,16 +42,18 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>MA1</t>
     </r>
@@ -63,16 +61,18 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>MA2</t>
     </r>
@@ -80,16 +80,18 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>stop_perc</t>
     </r>
@@ -97,16 +99,18 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>streak_num</t>
     </r>
@@ -114,16 +118,18 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>cooldown_h</t>
     </r>
@@ -131,35 +137,41 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>trail_1</t>
     </r>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Streak counted for all stop loss triggers; Cooldown for h hours; Trailing strategy when stop% hits break even, then 1% increments</t>
   </si>
   <si>
     <t xml:space="preserve">After stop loss, wait for MA reset; Streak only for consecutive stop loss triggers; </t>
+  </si>
+  <si>
+    <t>MAEVE-MA1-MA2-stop_perc-trail_1</t>
+  </si>
+  <si>
+    <t>After stop loss, wait for MA reset;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,20 +181,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,7 +200,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -205,21 +219,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -230,10 +258,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -260,82 +288,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -347,193 +375,228 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="64.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="79.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Misc/Documentation/MAEVE_versions.xlsx
+++ b/Misc/Documentation/MAEVE_versions.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Docs\Personal\MAEVE\MAEVE-II\Misc\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF42C63-68E2-4573-9023-50D83E47EB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Version</t>
   </si>
@@ -26,9 +32,6 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -164,13 +167,143 @@
   </si>
   <si>
     <t>After stop loss, wait for MA reset;</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <r>
+      <t>MAEVE-BUY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>MA1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>MA2-SELL-MA3-MA4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>stop_perc</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>streak_num</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>cooldown_h</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>trail_1</t>
+    </r>
+  </si>
+  <si>
+    <t>One crossover for BUY; One for SELL; Streak only for consecutive stop loss triggers (non trailing)</t>
+  </si>
+  <si>
+    <t>Backtest_time</t>
+  </si>
+  <si>
+    <t>60 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,34 +313,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Consolas"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Consolas"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -219,35 +352,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -258,10 +380,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -299,71 +421,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,7 +513,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -414,11 +536,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -427,13 +549,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -443,7 +565,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -452,7 +574,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -461,7 +583,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -469,10 +591,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -537,63 +659,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="64.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="79.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/Documentation/MAEVE_versions.xlsx
+++ b/Misc/Documentation/MAEVE_versions.xlsx
@@ -1,40 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Docs\Personal\MAEVE\MAEVE-II\Misc\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF42C63-68E2-4573-9023-50D83E47EB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Version</t>
   </si>
   <si>
+    <t>Trial</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+    <t>Best return</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -45,16 +48,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
@@ -64,16 +67,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
@@ -83,16 +86,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
@@ -102,16 +105,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
@@ -121,16 +124,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
@@ -140,16 +143,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
@@ -169,9 +172,6 @@
     <t>After stop loss, wait for MA reset;</t>
   </si>
   <si>
-    <t>Trial</t>
-  </si>
-  <si>
     <r>
       <t>MAEVE-BUY</t>
     </r>
@@ -179,16 +179,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
@@ -198,16 +198,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
@@ -217,16 +217,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
@@ -236,16 +236,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
@@ -255,16 +255,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
@@ -274,16 +274,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
@@ -292,19 +292,14 @@
   </si>
   <si>
     <t>One crossover for BUY; One for SELL; Streak only for consecutive stop loss triggers (non trailing)</t>
-  </si>
-  <si>
-    <t>Backtest_time</t>
-  </si>
-  <si>
-    <t>60 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,16 +308,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -335,12 +323,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF70ad47"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -348,28 +335,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,10 +415,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -421,71 +456,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,7 +548,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -536,11 +571,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -549,13 +584,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -565,7 +600,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -574,7 +609,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -583,7 +618,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -591,10 +626,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -659,97 +694,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="64.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="79.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="32.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7">
+        <v>76.99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7">
+        <v>16.81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7">
+        <v>15.96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
+      <c r="E5" s="7">
+        <v>54.73</v>
       </c>
     </row>
   </sheetData>
